--- a/with_new_data/train_see.xlsx
+++ b/with_new_data/train_see.xlsx
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>0.6</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="n">
         <v>0.8</v>
@@ -3682,7 +3682,7 @@
         <v>0.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
         <v>0.4</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I42" t="n">
         <v>0.8</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I45" t="n">
         <v>0.2</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
         <v>0.2</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I58" t="n">
         <v>0.2</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I60" t="n">
         <v>0.8</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I65" t="n">
         <v>0.6</v>
@@ -7217,7 +7217,7 @@
         <v>0.5</v>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I73" t="n">
         <v>0.8</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I88" t="n">
         <v>0.6</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>0.5</v>
       </c>
       <c r="H97" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I106" t="n">
         <v>0.6</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I116" t="n">
         <v>0.6</v>
@@ -12469,7 +12469,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I120" t="n">
         <v>0.2</v>
@@ -12570,7 +12570,7 @@
         <v>0.5</v>
       </c>
       <c r="H121" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -13580,7 +13580,7 @@
         <v>0.5</v>
       </c>
       <c r="H131" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I131" t="n">
         <v>0.6</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I134" t="n">
         <v>0.2</v>
@@ -13984,7 +13984,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I142" t="n">
         <v>0.2</v>
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
